--- a/docs/StructureDefinition-prescription-diagnosis.xlsx
+++ b/docs/StructureDefinition-prescription-diagnosis.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/prescription-diagnosis</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/prescription-diagnosis</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCoreDiagnosis</t>
+    <t>SehatukCoreDiagnosis</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,10 +252,6 @@
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
   </si>
   <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -277,7 +273,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -640,7 +636,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://roadxcore.com/terminology/ValueSet/diagnosis-icd-10-am</t>
+    <t>https://www.sehatuk.ae/terminology/ValueSet/diagnosis-icd-10-am</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -671,6 +667,10 @@
   </si>
   <si>
     <t>Condition.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1453,17 +1453,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="34.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.45703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1472,27 +1472,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="83.07421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.1171875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="83.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.41015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.578125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="66.34375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="212.80078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="212.74609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1715,19 +1715,19 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>73</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1749,28 +1749,28 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1820,13 +1820,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1866,25 +1866,25 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1935,19 +1935,19 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1981,28 +1981,28 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2052,19 +2052,19 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2098,7 +2098,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -2110,16 +2110,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2145,43 +2145,43 @@
         <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -2204,18 +2204,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2286,31 +2286,31 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>73</v>
@@ -2321,11 +2321,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2344,16 +2344,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2403,7 +2403,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -2427,7 +2427,7 @@
         <v>73</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>73</v>
@@ -2438,11 +2438,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2461,16 +2461,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2520,7 +2520,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2532,7 +2532,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2544,7 +2544,7 @@
         <v>73</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>73</v>
@@ -2555,11 +2555,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2572,25 +2572,25 @@
         <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2639,7 +2639,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2651,7 +2651,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2663,7 +2663,7 @@
         <v>73</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>73</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2694,22 +2694,22 @@
         <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>73</v>
@@ -2758,7 +2758,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2770,22 +2770,22 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>73</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2804,28 +2804,28 @@
         <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2851,58 +2851,58 @@
         <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH12" t="s" s="2">
+      <c r="AI12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>73</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2921,28 +2921,28 @@
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2968,66 +2968,66 @@
         <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH13" t="s" s="2">
+      <c r="AI13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AI13" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
       </c>
@@ -3050,16 +3050,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3085,14 +3085,14 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -3121,22 +3121,22 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>73</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3155,7 +3155,7 @@
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -3167,16 +3167,16 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3202,99 +3202,99 @@
         <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>73</v>
@@ -3319,64 +3319,64 @@
         <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3387,7 +3387,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3399,7 +3399,7 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>208</v>
@@ -3462,7 +3462,7 @@
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3514,16 +3514,16 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3585,7 +3585,7 @@
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3628,7 +3628,7 @@
         <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>219</v>
@@ -3704,7 +3704,7 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3735,22 +3735,22 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>228</v>
@@ -3817,13 +3817,13 @@
         <v>74</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3866,10 +3866,10 @@
         <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>236</v>
@@ -3940,7 +3940,7 @@
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>73</v>
@@ -3971,19 +3971,19 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>247</v>
@@ -4048,16 +4048,16 @@
         <v>245</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>251</v>
@@ -4091,16 +4091,16 @@
         <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>256</v>
@@ -4168,13 +4168,13 @@
         <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>260</v>
@@ -4208,16 +4208,16 @@
         <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>265</v>
@@ -4285,13 +4285,13 @@
         <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>269</v>
@@ -4325,7 +4325,7 @@
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>73</v>
@@ -4402,13 +4402,13 @@
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>277</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4442,16 +4442,16 @@
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>281</v>
@@ -4517,13 +4517,13 @@
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4557,16 +4557,16 @@
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>288</v>
@@ -4632,13 +4632,13 @@
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4672,16 +4672,16 @@
         <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>288</v>
@@ -4747,13 +4747,13 @@
         <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4902,7 +4902,7 @@
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4914,7 +4914,7 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>208</v>
@@ -4977,7 +4977,7 @@
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5029,16 +5029,16 @@
         <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>213</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5100,7 +5100,7 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5140,13 +5140,13 @@
         <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>309</v>
@@ -5155,10 +5155,10 @@
         <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5219,7 +5219,7 @@
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -5231,7 +5231,7 @@
         <v>73</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>73</v>
@@ -5253,7 +5253,7 @@
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -5265,7 +5265,7 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>313</v>
@@ -5328,13 +5328,13 @@
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>317</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5343,10 +5343,10 @@
         <v>318</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>73</v>
@@ -5449,7 +5449,7 @@
         <v>317</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -5483,7 +5483,7 @@
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5495,7 +5495,7 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>325</v>
@@ -5558,13 +5558,13 @@
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -5715,7 +5715,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5727,7 +5727,7 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>208</v>
@@ -5790,7 +5790,7 @@
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5842,16 +5842,16 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>213</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5913,7 +5913,7 @@
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -5953,13 +5953,13 @@
         <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>309</v>
@@ -5968,10 +5968,10 @@
         <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -6032,7 +6032,7 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>73</v>
@@ -6044,7 +6044,7 @@
         <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>73</v>
@@ -6075,10 +6075,10 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>340</v>
@@ -6147,13 +6147,13 @@
         <v>344</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
@@ -6190,7 +6190,7 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>349</v>
@@ -6262,7 +6262,7 @@
         <v>344</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6377,7 +6377,7 @@
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>356</v>

--- a/docs/StructureDefinition-prescription-diagnosis.xlsx
+++ b/docs/StructureDefinition-prescription-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
